--- a/data/output/FV2504_FV2410/UTILMD/55553.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55553.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="386">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="386">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1356,6 +1356,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U227" totalsRowShown="0">
+  <autoFilter ref="A1:U227"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,7 +1675,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11355,5 +11388,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55553.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55553.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="607">
   <si>
     <t>#</t>
   </si>
@@ -5956,44 +5956,42 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M72" s="5" t="s">
+      <c r="K72" s="2"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5" t="s">
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V72" s="5"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -6164,44 +6162,42 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -6368,44 +6364,42 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M80" s="5" t="s">
+      <c r="K80" s="2"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -7947,9 +7941,7 @@
         <v>267</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>42</v>
       </c>
@@ -8003,9 +7995,7 @@
         <v>267</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>42</v>
       </c>
@@ -8059,9 +8049,7 @@
         <v>267</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>42</v>
       </c>
@@ -10050,46 +10038,44 @@
       <c r="V162" s="11"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K163" s="5" t="s">
+      <c r="K163" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L163" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="V163" s="5" t="s">
+      <c r="V163" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -12176,44 +12162,42 @@
       <c r="V213" s="5"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5" t="s">
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M214" s="5" t="s">
+      <c r="K214" s="2"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N214" s="5" t="s">
+      <c r="N214" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O214" s="5"/>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5" t="s">
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V214" s="5"/>
+      <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="5" t="s">
@@ -12544,44 +12528,42 @@
       <c r="V220" s="5"/>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="5" t="s">
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K221" s="5"/>
-      <c r="L221" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M221" s="5" t="s">
+      <c r="K221" s="2"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N221" s="5" t="s">
+      <c r="N221" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O221" s="5"/>
-      <c r="P221" s="5"/>
-      <c r="Q221" s="5"/>
-      <c r="R221" s="5"/>
-      <c r="S221" s="5"/>
-      <c r="T221" s="5"/>
-      <c r="U221" s="5" t="s">
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V221" s="5"/>
+      <c r="V221" s="2"/>
     </row>
     <row r="222" spans="1:22">
       <c r="A222" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55553.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55553.xlsx
@@ -2003,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2026,6 +2026,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2034,6 +2037,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2476,7 +2482,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2840,7 +2846,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2988,7 +2994,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3190,7 +3196,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3698,7 +3704,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4072,7 +4078,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4384,7 +4390,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4566,24 +4572,24 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M43" s="5"/>
@@ -4601,33 +4607,33 @@
       <c r="A44" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M44" s="5"/>
@@ -4645,31 +4651,31 @@
       <c r="A45" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M45" s="5"/>
@@ -4687,33 +4693,33 @@
       <c r="A46" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M46" s="5"/>
@@ -4734,26 +4740,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M47" s="5"/>
@@ -4771,33 +4777,33 @@
       <c r="A48" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M48" s="5"/>
@@ -4815,33 +4821,33 @@
       <c r="A49" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M49" s="5"/>
@@ -4869,29 +4875,29 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4907,35 +4913,35 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -4951,57 +4957,57 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V52" s="11"/>
+      <c r="U52" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
         <v>275</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -5010,23 +5016,23 @@
       <c r="L53" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="5"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5" t="s">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="s">
         <v>275</v>
       </c>
       <c r="V53" s="6" t="s">
@@ -5163,29 +5169,29 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11" t="s">
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11" t="s">
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="V56" s="11" t="s">
+      <c r="V56" s="13" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5203,35 +5209,35 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -5247,33 +5253,33 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -5289,29 +5295,29 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="V59" s="11" t="s">
+      <c r="V59" s="13" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5329,35 +5335,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -5373,33 +5379,33 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -5415,54 +5421,54 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="6" t="s">
         <v>276</v>
       </c>
@@ -5472,22 +5478,22 @@
       <c r="L63" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="6" t="s">
         <v>366</v>
       </c>
@@ -5616,25 +5622,25 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="6" t="s">
         <v>276</v>
       </c>
@@ -5644,22 +5650,22 @@
       <c r="L66" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="6" t="s">
         <v>366</v>
       </c>
@@ -5788,26 +5794,26 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>278</v>
       </c>
       <c r="K69" s="6" t="s">
@@ -5816,23 +5822,23 @@
       <c r="L69" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="O69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>278</v>
       </c>
       <c r="V69" s="6" t="s">
@@ -5976,7 +5982,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6182,7 +6188,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6384,7 +6390,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6579,25 +6585,25 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11" t="s">
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="V84" s="11" t="s">
+      <c r="V84" s="13" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6615,29 +6621,29 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11" t="s">
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11" t="s">
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V85" s="11"/>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6653,33 +6659,33 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11" t="s">
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11" t="s">
+      <c r="S86" s="13"/>
+      <c r="T86" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="U86" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V86" s="11"/>
+      <c r="U86" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6695,33 +6701,33 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11" t="s">
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11" t="s">
+      <c r="S87" s="13"/>
+      <c r="T87" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="U87" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V87" s="11"/>
+      <c r="U87" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -6737,33 +6743,33 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11" t="s">
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="U88" s="11" t="s">
+      <c r="U88" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="V88" s="11" t="s">
+      <c r="V88" s="13" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6781,29 +6787,29 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11" t="s">
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="V89" s="11" t="s">
+      <c r="V89" s="13" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6821,35 +6827,35 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="U90" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V90" s="11"/>
+      <c r="U90" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6865,33 +6871,33 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q91" s="11" t="s">
+      <c r="Q91" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11" t="s">
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U91" s="11" t="s">
+      <c r="U91" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V91" s="11"/>
+      <c r="V91" s="13"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6907,35 +6913,35 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q92" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R92" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11" t="s">
+      <c r="S92" s="13"/>
+      <c r="T92" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U92" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V92" s="11"/>
+      <c r="U92" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6951,29 +6957,29 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11" t="s">
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11" t="s">
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="V93" s="11" t="s">
+      <c r="V93" s="13" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6991,35 +6997,35 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11" t="s">
+      <c r="S94" s="13"/>
+      <c r="T94" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="U94" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V94" s="11"/>
+      <c r="U94" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V94" s="13"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -7035,33 +7041,33 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U95" s="11" t="s">
+      <c r="U95" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V95" s="11"/>
+      <c r="V95" s="13"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -7077,53 +7083,53 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P96" s="11" t="s">
+      <c r="P96" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q96" s="11" t="s">
+      <c r="Q96" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="R96" s="11" t="s">
+      <c r="R96" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11" t="s">
+      <c r="S96" s="13"/>
+      <c r="T96" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U96" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V96" s="11"/>
+      <c r="U96" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>279</v>
       </c>
       <c r="K97" s="6" t="s">
@@ -7132,19 +7138,19 @@
       <c r="L97" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>279</v>
       </c>
       <c r="V97" s="6" t="s">
@@ -7266,24 +7272,24 @@
       <c r="B100" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8" t="s">
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M100" s="5"/>
@@ -7301,33 +7307,33 @@
       <c r="A101" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="J101" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M101" s="5"/>
@@ -7345,33 +7351,33 @@
       <c r="A102" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L102" s="9" t="s">
+      <c r="L102" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M102" s="5"/>
@@ -7399,83 +7405,83 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="U103" s="11" t="s">
+      <c r="U103" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="V103" s="11" t="s">
+      <c r="V103" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="s">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="2"/>
       <c r="L104" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O104" s="5" t="s">
+      <c r="O104" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P104" s="5"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5" t="s">
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V104" s="5"/>
+      <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7654,22 +7660,22 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>281</v>
       </c>
       <c r="K108" s="6" t="s">
@@ -7678,19 +7684,19 @@
       <c r="L108" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>281</v>
       </c>
       <c r="V108" s="6" t="s">
@@ -8076,22 +8082,22 @@
       <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>282</v>
       </c>
       <c r="K116" s="6" t="s">
@@ -8100,19 +8106,19 @@
       <c r="L116" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>282</v>
       </c>
       <c r="V116" s="6" t="s">
@@ -8297,25 +8303,25 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N120" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11" t="s">
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="V120" s="11" t="s">
+      <c r="V120" s="13" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8333,29 +8339,29 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11" t="s">
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11"/>
-      <c r="U121" s="11" t="s">
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V121" s="11"/>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -8371,35 +8377,35 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="N122" s="11" t="s">
+      <c r="N122" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Q122" s="11" t="s">
+      <c r="Q122" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R122" s="11" t="s">
+      <c r="R122" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11" t="s">
+      <c r="S122" s="13"/>
+      <c r="T122" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U122" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V122" s="11"/>
+      <c r="U122" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V122" s="13"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -8415,33 +8421,33 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="N123" s="11" t="s">
+      <c r="N123" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q123" s="11" t="s">
+      <c r="Q123" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11" t="s">
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
+      <c r="T123" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U123" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V123" s="11"/>
+      <c r="U123" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V123" s="13"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -8457,25 +8463,25 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="L124" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N124" s="11" t="s">
+      <c r="N124" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O124" s="11"/>
-      <c r="P124" s="11"/>
-      <c r="Q124" s="11"/>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11"/>
-      <c r="U124" s="11" t="s">
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13"/>
+      <c r="U124" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="V124" s="11" t="s">
+      <c r="V124" s="13" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8493,29 +8499,29 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="10" t="s">
+      <c r="L125" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M125" s="11" t="s">
+      <c r="M125" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N125" s="11" t="s">
+      <c r="N125" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O125" s="11" t="s">
+      <c r="O125" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P125" s="11"/>
-      <c r="Q125" s="11" t="s">
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="R125" s="11"/>
-      <c r="S125" s="11"/>
-      <c r="T125" s="11"/>
-      <c r="U125" s="11" t="s">
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13"/>
+      <c r="U125" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V125" s="11"/>
+      <c r="V125" s="13"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -8531,35 +8537,35 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
-      <c r="L126" s="10" t="s">
+      <c r="L126" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M126" s="11" t="s">
+      <c r="M126" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N126" s="11" t="s">
+      <c r="N126" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O126" s="11" t="s">
+      <c r="O126" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P126" s="11" t="s">
+      <c r="P126" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q126" s="11" t="s">
+      <c r="Q126" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="R126" s="11" t="s">
+      <c r="R126" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="S126" s="11"/>
-      <c r="T126" s="11" t="s">
+      <c r="S126" s="13"/>
+      <c r="T126" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="U126" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V126" s="11"/>
+      <c r="U126" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V126" s="13"/>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="5" t="s">
@@ -8575,33 +8581,33 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
-      <c r="L127" s="10" t="s">
+      <c r="L127" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M127" s="11" t="s">
+      <c r="M127" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N127" s="11" t="s">
+      <c r="N127" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O127" s="11" t="s">
+      <c r="O127" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P127" s="11" t="s">
+      <c r="P127" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="Q127" s="11" t="s">
+      <c r="Q127" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="11" t="s">
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="U127" s="11" t="s">
+      <c r="U127" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="V127" s="11" t="s">
+      <c r="V127" s="13" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8619,29 +8625,29 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
-      <c r="L128" s="10" t="s">
+      <c r="L128" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M128" s="11" t="s">
+      <c r="M128" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N128" s="11" t="s">
+      <c r="N128" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O128" s="11" t="s">
+      <c r="O128" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11" t="s">
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="11"/>
-      <c r="U128" s="11" t="s">
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V128" s="11"/>
+      <c r="V128" s="13"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="5" t="s">
@@ -8657,35 +8663,35 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M129" s="11" t="s">
+      <c r="M129" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N129" s="11" t="s">
+      <c r="N129" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O129" s="11" t="s">
+      <c r="O129" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P129" s="11" t="s">
+      <c r="P129" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q129" s="11" t="s">
+      <c r="Q129" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="R129" s="11" t="s">
+      <c r="R129" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11" t="s">
+      <c r="S129" s="13"/>
+      <c r="T129" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="U129" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V129" s="11"/>
+      <c r="U129" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V129" s="13"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8701,33 +8707,33 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
-      <c r="L130" s="10" t="s">
+      <c r="L130" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M130" s="11" t="s">
+      <c r="M130" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N130" s="11" t="s">
+      <c r="N130" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O130" s="11" t="s">
+      <c r="O130" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P130" s="11" t="s">
+      <c r="P130" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q130" s="11" t="s">
+      <c r="Q130" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="R130" s="11"/>
-      <c r="S130" s="11"/>
-      <c r="T130" s="11" t="s">
+      <c r="R130" s="13"/>
+      <c r="S130" s="13"/>
+      <c r="T130" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="U130" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V130" s="11"/>
+      <c r="U130" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V130" s="13"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -8743,25 +8749,25 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
-      <c r="L131" s="10" t="s">
+      <c r="L131" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M131" s="11" t="s">
+      <c r="M131" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N131" s="11" t="s">
+      <c r="N131" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11"/>
-      <c r="U131" s="11" t="s">
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V131" s="11"/>
+      <c r="V131" s="13"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="5" t="s">
@@ -8777,29 +8783,29 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-      <c r="L132" s="10" t="s">
+      <c r="L132" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M132" s="11" t="s">
+      <c r="M132" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N132" s="11" t="s">
+      <c r="N132" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O132" s="11" t="s">
+      <c r="O132" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P132" s="11"/>
-      <c r="Q132" s="11" t="s">
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="11"/>
-      <c r="U132" s="11" t="s">
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V132" s="11"/>
+      <c r="V132" s="13"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8815,35 +8821,35 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-      <c r="L133" s="10" t="s">
+      <c r="L133" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M133" s="11" t="s">
+      <c r="M133" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N133" s="11" t="s">
+      <c r="N133" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="11" t="s">
+      <c r="O133" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P133" s="11" t="s">
+      <c r="P133" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q133" s="11" t="s">
+      <c r="Q133" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="R133" s="11" t="s">
+      <c r="R133" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11" t="s">
+      <c r="S133" s="13"/>
+      <c r="T133" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U133" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V133" s="11"/>
+      <c r="U133" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V133" s="13"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="5" t="s">
@@ -8859,29 +8865,29 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
-      <c r="L134" s="10" t="s">
+      <c r="L134" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M134" s="11" t="s">
+      <c r="M134" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N134" s="11" t="s">
+      <c r="N134" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="11" t="s">
+      <c r="O134" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="11" t="s">
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
-      <c r="T134" s="11"/>
-      <c r="U134" s="11" t="s">
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V134" s="11"/>
+      <c r="V134" s="13"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -8897,35 +8903,35 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
-      <c r="L135" s="10" t="s">
+      <c r="L135" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M135" s="11" t="s">
+      <c r="M135" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N135" s="11" t="s">
+      <c r="N135" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="11" t="s">
+      <c r="O135" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P135" s="11" t="s">
+      <c r="P135" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q135" s="11" t="s">
+      <c r="Q135" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="R135" s="11" t="s">
+      <c r="R135" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="S135" s="11"/>
-      <c r="T135" s="11" t="s">
+      <c r="S135" s="13"/>
+      <c r="T135" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="U135" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V135" s="11"/>
+      <c r="U135" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V135" s="13"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8941,33 +8947,33 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
-      <c r="L136" s="10" t="s">
+      <c r="L136" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M136" s="11" t="s">
+      <c r="M136" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N136" s="11" t="s">
+      <c r="N136" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O136" s="11" t="s">
+      <c r="O136" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P136" s="11" t="s">
+      <c r="P136" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q136" s="11" t="s">
+      <c r="Q136" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11" t="s">
+      <c r="R136" s="13"/>
+      <c r="S136" s="13"/>
+      <c r="T136" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="U136" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V136" s="11"/>
+      <c r="U136" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V136" s="13"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="5" t="s">
@@ -8983,25 +8989,25 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
-      <c r="L137" s="10" t="s">
+      <c r="L137" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M137" s="11" t="s">
+      <c r="M137" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N137" s="11" t="s">
+      <c r="N137" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="11"/>
-      <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
-      <c r="T137" s="11"/>
-      <c r="U137" s="11" t="s">
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+      <c r="R137" s="13"/>
+      <c r="S137" s="13"/>
+      <c r="T137" s="13"/>
+      <c r="U137" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V137" s="11" t="s">
+      <c r="V137" s="13" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9019,29 +9025,29 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
-      <c r="L138" s="10" t="s">
+      <c r="L138" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M138" s="11" t="s">
+      <c r="M138" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N138" s="11" t="s">
+      <c r="N138" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O138" s="11" t="s">
+      <c r="O138" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="11" t="s">
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="11" t="s">
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="13"/>
+      <c r="U138" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V138" s="11"/>
+      <c r="V138" s="13"/>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="5" t="s">
@@ -9057,35 +9063,35 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
-      <c r="L139" s="10" t="s">
+      <c r="L139" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M139" s="11" t="s">
+      <c r="M139" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N139" s="11" t="s">
+      <c r="N139" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O139" s="11" t="s">
+      <c r="O139" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P139" s="11" t="s">
+      <c r="P139" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q139" s="11" t="s">
+      <c r="Q139" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="R139" s="11" t="s">
+      <c r="R139" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11" t="s">
+      <c r="S139" s="13"/>
+      <c r="T139" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="U139" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V139" s="11"/>
+      <c r="U139" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V139" s="13"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="5" t="s">
@@ -9101,33 +9107,33 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="L140" s="10" t="s">
+      <c r="L140" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M140" s="11" t="s">
+      <c r="M140" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N140" s="11" t="s">
+      <c r="N140" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O140" s="11" t="s">
+      <c r="O140" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P140" s="11" t="s">
+      <c r="P140" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="Q140" s="11" t="s">
+      <c r="Q140" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11" t="s">
+      <c r="R140" s="13"/>
+      <c r="S140" s="13"/>
+      <c r="T140" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="U140" s="11" t="s">
+      <c r="U140" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="V140" s="11" t="s">
+      <c r="V140" s="13" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9145,29 +9151,29 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
-      <c r="L141" s="10" t="s">
+      <c r="L141" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M141" s="11" t="s">
+      <c r="M141" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N141" s="11" t="s">
+      <c r="N141" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O141" s="11" t="s">
+      <c r="O141" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11" t="s">
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11" t="s">
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="13"/>
+      <c r="U141" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="V141" s="11" t="s">
+      <c r="V141" s="13" t="s">
         <v>306</v>
       </c>
     </row>
@@ -9185,35 +9191,35 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
-      <c r="L142" s="10" t="s">
+      <c r="L142" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M142" s="11" t="s">
+      <c r="M142" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N142" s="11" t="s">
+      <c r="N142" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O142" s="11" t="s">
+      <c r="O142" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P142" s="11" t="s">
+      <c r="P142" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q142" s="11" t="s">
+      <c r="Q142" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="R142" s="11" t="s">
+      <c r="R142" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="S142" s="11"/>
-      <c r="T142" s="11" t="s">
+      <c r="S142" s="13"/>
+      <c r="T142" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="U142" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V142" s="11"/>
+      <c r="U142" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V142" s="13"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -9229,33 +9235,33 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
-      <c r="L143" s="10" t="s">
+      <c r="L143" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M143" s="11" t="s">
+      <c r="M143" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N143" s="11" t="s">
+      <c r="N143" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O143" s="11" t="s">
+      <c r="O143" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P143" s="11" t="s">
+      <c r="P143" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q143" s="11" t="s">
+      <c r="Q143" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11" t="s">
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="U143" s="11" t="s">
+      <c r="U143" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="V143" s="11" t="s">
+      <c r="V143" s="13" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9273,29 +9279,29 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
-      <c r="L144" s="10" t="s">
+      <c r="L144" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M144" s="11" t="s">
+      <c r="M144" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N144" s="11" t="s">
+      <c r="N144" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O144" s="11" t="s">
+      <c r="O144" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P144" s="11"/>
-      <c r="Q144" s="11" t="s">
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="11" t="s">
+      <c r="R144" s="13"/>
+      <c r="S144" s="13"/>
+      <c r="T144" s="13"/>
+      <c r="U144" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V144" s="11"/>
+      <c r="V144" s="13"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="5" t="s">
@@ -9311,35 +9317,35 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
-      <c r="L145" s="10" t="s">
+      <c r="L145" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M145" s="11" t="s">
+      <c r="M145" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N145" s="11" t="s">
+      <c r="N145" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O145" s="11" t="s">
+      <c r="O145" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P145" s="11" t="s">
+      <c r="P145" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q145" s="11" t="s">
+      <c r="Q145" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R145" s="11" t="s">
+      <c r="R145" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11" t="s">
+      <c r="S145" s="13"/>
+      <c r="T145" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="U145" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V145" s="11"/>
+      <c r="U145" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V145" s="13"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -9355,33 +9361,33 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
-      <c r="L146" s="10" t="s">
+      <c r="L146" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M146" s="11" t="s">
+      <c r="M146" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N146" s="11" t="s">
+      <c r="N146" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O146" s="11" t="s">
+      <c r="O146" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P146" s="11" t="s">
+      <c r="P146" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q146" s="11" t="s">
+      <c r="Q146" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11" t="s">
+      <c r="R146" s="13"/>
+      <c r="S146" s="13"/>
+      <c r="T146" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="U146" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V146" s="11"/>
+      <c r="U146" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V146" s="13"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -9397,29 +9403,29 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-      <c r="L147" s="10" t="s">
+      <c r="L147" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M147" s="11" t="s">
+      <c r="M147" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N147" s="11" t="s">
+      <c r="N147" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O147" s="11" t="s">
+      <c r="O147" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11" t="s">
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11" t="s">
+      <c r="R147" s="13"/>
+      <c r="S147" s="13"/>
+      <c r="T147" s="13"/>
+      <c r="U147" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V147" s="11"/>
+      <c r="V147" s="13"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9435,35 +9441,35 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="10" t="s">
+      <c r="L148" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M148" s="11" t="s">
+      <c r="M148" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N148" s="11" t="s">
+      <c r="N148" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O148" s="11" t="s">
+      <c r="O148" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P148" s="11" t="s">
+      <c r="P148" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q148" s="11" t="s">
+      <c r="Q148" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R148" s="11" t="s">
+      <c r="R148" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11" t="s">
+      <c r="S148" s="13"/>
+      <c r="T148" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U148" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V148" s="11"/>
+      <c r="U148" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V148" s="13"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9479,33 +9485,33 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
-      <c r="L149" s="10" t="s">
+      <c r="L149" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M149" s="11" t="s">
+      <c r="M149" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N149" s="11" t="s">
+      <c r="N149" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O149" s="11" t="s">
+      <c r="O149" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P149" s="11" t="s">
+      <c r="P149" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q149" s="11" t="s">
+      <c r="Q149" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11" t="s">
+      <c r="R149" s="13"/>
+      <c r="S149" s="13"/>
+      <c r="T149" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="U149" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V149" s="11"/>
+      <c r="U149" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V149" s="13"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="5" t="s">
@@ -9521,35 +9527,35 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
-      <c r="L150" s="10" t="s">
+      <c r="L150" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M150" s="11" t="s">
+      <c r="M150" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N150" s="11" t="s">
+      <c r="N150" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O150" s="11" t="s">
+      <c r="O150" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P150" s="11" t="s">
+      <c r="P150" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q150" s="11" t="s">
+      <c r="Q150" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R150" s="11" t="s">
+      <c r="R150" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11" t="s">
+      <c r="S150" s="13"/>
+      <c r="T150" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="U150" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V150" s="11"/>
+      <c r="U150" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V150" s="13"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9565,25 +9571,25 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
-      <c r="L151" s="10" t="s">
+      <c r="L151" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M151" s="11" t="s">
+      <c r="M151" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N151" s="11" t="s">
+      <c r="N151" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O151" s="11"/>
-      <c r="P151" s="11"/>
-      <c r="Q151" s="11"/>
-      <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
-      <c r="T151" s="11"/>
-      <c r="U151" s="11" t="s">
+      <c r="O151" s="13"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13"/>
+      <c r="R151" s="13"/>
+      <c r="S151" s="13"/>
+      <c r="T151" s="13"/>
+      <c r="U151" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="V151" s="11" t="s">
+      <c r="V151" s="13" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9601,29 +9607,29 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
-      <c r="L152" s="10" t="s">
+      <c r="L152" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M152" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N152" s="11" t="s">
+      <c r="N152" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O152" s="11" t="s">
+      <c r="O152" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P152" s="11"/>
-      <c r="Q152" s="11" t="s">
+      <c r="P152" s="13"/>
+      <c r="Q152" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
-      <c r="U152" s="11" t="s">
+      <c r="R152" s="13"/>
+      <c r="S152" s="13"/>
+      <c r="T152" s="13"/>
+      <c r="U152" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V152" s="11"/>
+      <c r="V152" s="13"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9639,35 +9645,35 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="10" t="s">
+      <c r="L153" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M153" s="11" t="s">
+      <c r="M153" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N153" s="11" t="s">
+      <c r="N153" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O153" s="11" t="s">
+      <c r="O153" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P153" s="11" t="s">
+      <c r="P153" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q153" s="11" t="s">
+      <c r="Q153" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="R153" s="11" t="s">
+      <c r="R153" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11" t="s">
+      <c r="S153" s="13"/>
+      <c r="T153" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U153" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V153" s="11"/>
+      <c r="U153" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V153" s="13"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -9683,29 +9689,29 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
-      <c r="L154" s="10" t="s">
+      <c r="L154" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M154" s="11" t="s">
+      <c r="M154" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N154" s="11" t="s">
+      <c r="N154" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O154" s="11" t="s">
+      <c r="O154" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P154" s="11"/>
-      <c r="Q154" s="11" t="s">
+      <c r="P154" s="13"/>
+      <c r="Q154" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R154" s="11"/>
-      <c r="S154" s="11"/>
-      <c r="T154" s="11"/>
-      <c r="U154" s="11" t="s">
+      <c r="R154" s="13"/>
+      <c r="S154" s="13"/>
+      <c r="T154" s="13"/>
+      <c r="U154" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V154" s="11"/>
+      <c r="V154" s="13"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="5" t="s">
@@ -9721,35 +9727,35 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
-      <c r="L155" s="10" t="s">
+      <c r="L155" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M155" s="11" t="s">
+      <c r="M155" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N155" s="11" t="s">
+      <c r="N155" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O155" s="11" t="s">
+      <c r="O155" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P155" s="11" t="s">
+      <c r="P155" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q155" s="11" t="s">
+      <c r="Q155" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="R155" s="11" t="s">
+      <c r="R155" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="S155" s="11"/>
-      <c r="T155" s="11" t="s">
+      <c r="S155" s="13"/>
+      <c r="T155" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="U155" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V155" s="11"/>
+      <c r="U155" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V155" s="13"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9765,33 +9771,33 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
-      <c r="L156" s="10" t="s">
+      <c r="L156" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M156" s="11" t="s">
+      <c r="M156" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N156" s="11" t="s">
+      <c r="N156" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O156" s="11" t="s">
+      <c r="O156" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P156" s="11" t="s">
+      <c r="P156" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q156" s="11"/>
-      <c r="R156" s="11" t="s">
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11" t="s">
+      <c r="S156" s="13"/>
+      <c r="T156" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="U156" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V156" s="11"/>
+      <c r="U156" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V156" s="13"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -9807,33 +9813,33 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
-      <c r="L157" s="10" t="s">
+      <c r="L157" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M157" s="11" t="s">
+      <c r="M157" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N157" s="11" t="s">
+      <c r="N157" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O157" s="11" t="s">
+      <c r="O157" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P157" s="11" t="s">
+      <c r="P157" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q157" s="11"/>
-      <c r="R157" s="11" t="s">
+      <c r="Q157" s="13"/>
+      <c r="R157" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S157" s="11"/>
-      <c r="T157" s="11" t="s">
+      <c r="S157" s="13"/>
+      <c r="T157" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="U157" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V157" s="11"/>
+      <c r="U157" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V157" s="13"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="5" t="s">
@@ -9849,33 +9855,33 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
-      <c r="L158" s="10" t="s">
+      <c r="L158" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M158" s="11" t="s">
+      <c r="M158" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N158" s="11" t="s">
+      <c r="N158" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O158" s="11" t="s">
+      <c r="O158" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P158" s="11" t="s">
+      <c r="P158" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q158" s="11"/>
-      <c r="R158" s="11" t="s">
+      <c r="Q158" s="13"/>
+      <c r="R158" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S158" s="11"/>
-      <c r="T158" s="11" t="s">
+      <c r="S158" s="13"/>
+      <c r="T158" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="U158" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V158" s="11"/>
+      <c r="U158" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V158" s="13"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9891,25 +9897,25 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
-      <c r="L159" s="10" t="s">
+      <c r="L159" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M159" s="11" t="s">
+      <c r="M159" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N159" s="11" t="s">
+      <c r="N159" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
-      <c r="Q159" s="11"/>
-      <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
-      <c r="T159" s="11"/>
-      <c r="U159" s="11" t="s">
+      <c r="O159" s="13"/>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="13"/>
+      <c r="R159" s="13"/>
+      <c r="S159" s="13"/>
+      <c r="T159" s="13"/>
+      <c r="U159" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="V159" s="11" t="s">
+      <c r="V159" s="13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9927,29 +9933,29 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
-      <c r="L160" s="10" t="s">
+      <c r="L160" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M160" s="11" t="s">
+      <c r="M160" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N160" s="11" t="s">
+      <c r="N160" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O160" s="11" t="s">
+      <c r="O160" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P160" s="11"/>
-      <c r="Q160" s="11" t="s">
+      <c r="P160" s="13"/>
+      <c r="Q160" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="R160" s="11"/>
-      <c r="S160" s="11"/>
-      <c r="T160" s="11"/>
-      <c r="U160" s="11" t="s">
+      <c r="R160" s="13"/>
+      <c r="S160" s="13"/>
+      <c r="T160" s="13"/>
+      <c r="U160" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V160" s="11"/>
+      <c r="V160" s="13"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -9965,35 +9971,35 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
-      <c r="L161" s="10" t="s">
+      <c r="L161" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M161" s="11" t="s">
+      <c r="M161" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N161" s="11" t="s">
+      <c r="N161" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O161" s="11" t="s">
+      <c r="O161" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P161" s="11" t="s">
+      <c r="P161" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Q161" s="11" t="s">
+      <c r="Q161" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="R161" s="11" t="s">
+      <c r="R161" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S161" s="11"/>
-      <c r="T161" s="11" t="s">
+      <c r="S161" s="13"/>
+      <c r="T161" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="U161" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V161" s="11"/>
+      <c r="U161" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V161" s="13"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="5" t="s">
@@ -10009,33 +10015,33 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
-      <c r="L162" s="10" t="s">
+      <c r="L162" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M162" s="11" t="s">
+      <c r="M162" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N162" s="11" t="s">
+      <c r="N162" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O162" s="11" t="s">
+      <c r="O162" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P162" s="11" t="s">
+      <c r="P162" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q162" s="11" t="s">
+      <c r="Q162" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="R162" s="11"/>
-      <c r="S162" s="11"/>
-      <c r="T162" s="11" t="s">
+      <c r="R162" s="13"/>
+      <c r="S162" s="13"/>
+      <c r="T162" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="U162" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="V162" s="11"/>
+      <c r="U162" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V162" s="13"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="2" t="s">
@@ -10060,7 +10066,7 @@
         <v>302</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10250,22 +10256,22 @@
       <c r="B167" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8" t="s">
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K167" s="8" t="s">
+      <c r="K167" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="L167" s="9" t="s">
+      <c r="L167" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M167" s="5"/>
@@ -10283,27 +10289,27 @@
       <c r="A168" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8" t="s">
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K168" s="8"/>
-      <c r="L168" s="9" t="s">
+      <c r="K168" s="9"/>
+      <c r="L168" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M168" s="5"/>
@@ -10321,33 +10327,33 @@
       <c r="A169" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9" t="s">
+      <c r="J169" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M169" s="5"/>
@@ -10368,24 +10374,24 @@
       <c r="B170" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8" t="s">
+      <c r="E170" s="9"/>
+      <c r="F170" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8" t="s">
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K170" s="8"/>
-      <c r="L170" s="9" t="s">
+      <c r="K170" s="9"/>
+      <c r="L170" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M170" s="5"/>
@@ -10403,33 +10409,33 @@
       <c r="A171" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F171" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G171" s="8" t="s">
+      <c r="G171" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8" t="s">
+      <c r="H171" s="9"/>
+      <c r="I171" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J171" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K171" s="8"/>
-      <c r="L171" s="9" t="s">
+      <c r="J171" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K171" s="9"/>
+      <c r="L171" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M171" s="5"/>
@@ -10447,33 +10453,33 @@
       <c r="A172" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8" t="s">
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J172" s="8" t="s">
+      <c r="J172" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K172" s="8" t="s">
+      <c r="K172" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="L172" s="9" t="s">
+      <c r="L172" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M172" s="5"/>
@@ -10494,24 +10500,24 @@
       <c r="B173" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8" t="s">
+      <c r="E173" s="9"/>
+      <c r="F173" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8" t="s">
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K173" s="8"/>
-      <c r="L173" s="9" t="s">
+      <c r="K173" s="9"/>
+      <c r="L173" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M173" s="5"/>
@@ -10529,33 +10535,33 @@
       <c r="A174" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G174" s="8" t="s">
+      <c r="G174" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8" t="s">
+      <c r="H174" s="9"/>
+      <c r="I174" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J174" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K174" s="8"/>
-      <c r="L174" s="9" t="s">
+      <c r="J174" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K174" s="9"/>
+      <c r="L174" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M174" s="5"/>
@@ -10573,31 +10579,31 @@
       <c r="A175" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F175" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8" t="s">
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J175" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9" t="s">
+      <c r="J175" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K175" s="9"/>
+      <c r="L175" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M175" s="5"/>
@@ -10618,20 +10624,20 @@
       <c r="B176" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8" t="s">
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K176" s="8"/>
-      <c r="L176" s="9" t="s">
+      <c r="K176" s="9"/>
+      <c r="L176" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M176" s="5"/>
@@ -10649,27 +10655,27 @@
       <c r="A177" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8" t="s">
+      <c r="E177" s="9"/>
+      <c r="F177" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K177" s="8"/>
-      <c r="L177" s="9" t="s">
+      <c r="K177" s="9"/>
+      <c r="L177" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M177" s="5"/>
@@ -10687,33 +10693,33 @@
       <c r="A178" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G178" s="8" t="s">
+      <c r="G178" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8" t="s">
+      <c r="H178" s="9"/>
+      <c r="I178" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J178" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9" t="s">
+      <c r="J178" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M178" s="5"/>
@@ -10734,24 +10740,24 @@
       <c r="B179" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M179" s="5"/>
@@ -10769,33 +10775,33 @@
       <c r="A180" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8" t="s">
+      <c r="H180" s="9"/>
+      <c r="I180" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J180" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K180" s="8"/>
-      <c r="L180" s="9" t="s">
+      <c r="J180" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M180" s="5"/>
@@ -10813,31 +10819,31 @@
       <c r="A181" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8" t="s">
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J181" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K181" s="8"/>
-      <c r="L181" s="9" t="s">
+      <c r="J181" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K181" s="9"/>
+      <c r="L181" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M181" s="5"/>
@@ -10858,22 +10864,22 @@
       <c r="B182" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8" t="s">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K182" s="8" t="s">
+      <c r="K182" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="L182" s="9" t="s">
+      <c r="L182" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M182" s="5"/>
@@ -10891,27 +10897,27 @@
       <c r="A183" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8" t="s">
+      <c r="E183" s="9"/>
+      <c r="F183" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8" t="s">
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K183" s="8"/>
-      <c r="L183" s="9" t="s">
+      <c r="K183" s="9"/>
+      <c r="L183" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M183" s="5"/>
@@ -10929,33 +10935,33 @@
       <c r="A184" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G184" s="8" t="s">
+      <c r="G184" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8" t="s">
+      <c r="H184" s="9"/>
+      <c r="I184" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J184" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K184" s="8"/>
-      <c r="L184" s="9" t="s">
+      <c r="J184" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K184" s="9"/>
+      <c r="L184" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M184" s="5"/>
@@ -10976,26 +10982,26 @@
       <c r="B185" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8" t="s">
+      <c r="E185" s="9"/>
+      <c r="F185" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8" t="s">
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K185" s="8" t="s">
+      <c r="K185" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="L185" s="9" t="s">
+      <c r="L185" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M185" s="5"/>
@@ -11013,33 +11019,33 @@
       <c r="A186" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E186" s="8" t="s">
+      <c r="E186" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F186" s="8" t="s">
+      <c r="F186" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="G186" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8" t="s">
+      <c r="H186" s="9"/>
+      <c r="I186" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J186" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="9" t="s">
+      <c r="J186" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K186" s="9"/>
+      <c r="L186" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M186" s="5"/>
@@ -11057,33 +11063,33 @@
       <c r="A187" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F187" s="8" t="s">
+      <c r="F187" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8" t="s">
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J187" s="8" t="s">
+      <c r="J187" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="K187" s="8" t="s">
+      <c r="K187" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="L187" s="9" t="s">
+      <c r="L187" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M187" s="5"/>
@@ -11104,24 +11110,24 @@
       <c r="B188" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8" t="s">
+      <c r="E188" s="9"/>
+      <c r="F188" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8" t="s">
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K188" s="8"/>
-      <c r="L188" s="9" t="s">
+      <c r="K188" s="9"/>
+      <c r="L188" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M188" s="5"/>
@@ -11139,33 +11145,33 @@
       <c r="A189" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F189" s="8" t="s">
+      <c r="F189" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G189" s="8" t="s">
+      <c r="G189" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8" t="s">
+      <c r="H189" s="9"/>
+      <c r="I189" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J189" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K189" s="8"/>
-      <c r="L189" s="9" t="s">
+      <c r="J189" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K189" s="9"/>
+      <c r="L189" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M189" s="5"/>
@@ -11183,33 +11189,33 @@
       <c r="A190" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F190" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8" t="s">
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J190" s="8" t="s">
+      <c r="J190" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K190" s="8" t="s">
+      <c r="K190" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="L190" s="9" t="s">
+      <c r="L190" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M190" s="5"/>
@@ -11230,24 +11236,24 @@
       <c r="B191" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8" t="s">
+      <c r="E191" s="9"/>
+      <c r="F191" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8" t="s">
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K191" s="8"/>
-      <c r="L191" s="9" t="s">
+      <c r="K191" s="9"/>
+      <c r="L191" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M191" s="5"/>
@@ -11265,33 +11271,33 @@
       <c r="A192" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="F192" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G192" s="8" t="s">
+      <c r="G192" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8" t="s">
+      <c r="H192" s="9"/>
+      <c r="I192" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J192" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K192" s="8"/>
-      <c r="L192" s="9" t="s">
+      <c r="J192" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K192" s="9"/>
+      <c r="L192" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M192" s="5"/>
@@ -11309,31 +11315,31 @@
       <c r="A193" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8" t="s">
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J193" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K193" s="8"/>
-      <c r="L193" s="9" t="s">
+      <c r="J193" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M193" s="5"/>
@@ -11354,24 +11360,24 @@
       <c r="B194" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8" t="s">
+      <c r="E194" s="9"/>
+      <c r="F194" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8" t="s">
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K194" s="8"/>
-      <c r="L194" s="9" t="s">
+      <c r="K194" s="9"/>
+      <c r="L194" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M194" s="5"/>
@@ -11389,33 +11395,33 @@
       <c r="A195" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="E195" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F195" s="8" t="s">
+      <c r="F195" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G195" s="8" t="s">
+      <c r="G195" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8" t="s">
+      <c r="H195" s="9"/>
+      <c r="I195" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J195" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K195" s="8"/>
-      <c r="L195" s="9" t="s">
+      <c r="J195" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K195" s="9"/>
+      <c r="L195" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M195" s="5"/>
@@ -11433,31 +11439,31 @@
       <c r="A196" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F196" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8" t="s">
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J196" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K196" s="8"/>
-      <c r="L196" s="9" t="s">
+      <c r="J196" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M196" s="5"/>
@@ -11475,33 +11481,33 @@
       <c r="A197" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E197" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F197" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="G197" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8" t="s">
+      <c r="H197" s="9"/>
+      <c r="I197" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J197" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K197" s="8"/>
-      <c r="L197" s="9" t="s">
+      <c r="J197" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K197" s="9"/>
+      <c r="L197" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M197" s="5"/>
@@ -11522,22 +11528,22 @@
       <c r="B198" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="K198" s="8" t="s">
+      <c r="K198" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="L198" s="9" t="s">
+      <c r="L198" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M198" s="5"/>
@@ -11555,27 +11561,27 @@
       <c r="A199" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8" t="s">
+      <c r="E199" s="9"/>
+      <c r="F199" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8" t="s">
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K199" s="8"/>
-      <c r="L199" s="9" t="s">
+      <c r="K199" s="9"/>
+      <c r="L199" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M199" s="5"/>
@@ -11593,33 +11599,33 @@
       <c r="A200" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="E200" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F200" s="8" t="s">
+      <c r="F200" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G200" s="8" t="s">
+      <c r="G200" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8" t="s">
+      <c r="H200" s="9"/>
+      <c r="I200" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J200" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K200" s="8"/>
-      <c r="L200" s="9" t="s">
+      <c r="J200" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K200" s="9"/>
+      <c r="L200" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M200" s="5"/>
@@ -11637,27 +11643,27 @@
       <c r="A201" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8" t="s">
+      <c r="E201" s="9"/>
+      <c r="F201" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8" t="s">
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K201" s="8"/>
-      <c r="L201" s="9" t="s">
+      <c r="K201" s="9"/>
+      <c r="L201" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M201" s="5"/>
@@ -11675,33 +11681,33 @@
       <c r="A202" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="F202" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G202" s="8" t="s">
+      <c r="G202" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8" t="s">
+      <c r="H202" s="9"/>
+      <c r="I202" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J202" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K202" s="8"/>
-      <c r="L202" s="9" t="s">
+      <c r="J202" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K202" s="9"/>
+      <c r="L202" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M202" s="5"/>
@@ -11719,31 +11725,31 @@
       <c r="A203" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E203" s="8" t="s">
+      <c r="E203" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8" t="s">
+      <c r="F203" s="9"/>
+      <c r="G203" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8" t="s">
+      <c r="H203" s="9"/>
+      <c r="I203" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="J203" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K203" s="8"/>
-      <c r="L203" s="9" t="s">
+      <c r="J203" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K203" s="9"/>
+      <c r="L203" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M203" s="5"/>
@@ -11761,31 +11767,31 @@
       <c r="A204" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E204" s="8" t="s">
+      <c r="E204" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8" t="s">
+      <c r="F204" s="9"/>
+      <c r="G204" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8" t="s">
+      <c r="H204" s="9"/>
+      <c r="I204" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J204" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K204" s="8"/>
-      <c r="L204" s="9" t="s">
+      <c r="J204" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K204" s="9"/>
+      <c r="L204" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M204" s="5"/>
@@ -11803,31 +11809,31 @@
       <c r="A205" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8" t="s">
+      <c r="F205" s="9"/>
+      <c r="G205" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8" t="s">
+      <c r="H205" s="9"/>
+      <c r="I205" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J205" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K205" s="8"/>
-      <c r="L205" s="9" t="s">
+      <c r="J205" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K205" s="9"/>
+      <c r="L205" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M205" s="5"/>
@@ -11848,22 +11854,22 @@
       <c r="B206" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8" t="s">
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K206" s="8" t="s">
+      <c r="K206" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="L206" s="9" t="s">
+      <c r="L206" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M206" s="5"/>
@@ -11881,27 +11887,27 @@
       <c r="A207" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8" t="s">
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8" t="s">
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K207" s="8"/>
-      <c r="L207" s="9" t="s">
+      <c r="K207" s="9"/>
+      <c r="L207" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M207" s="5"/>
@@ -11919,33 +11925,33 @@
       <c r="A208" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8" t="s">
+      <c r="H208" s="9"/>
+      <c r="I208" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J208" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K208" s="8"/>
-      <c r="L208" s="9" t="s">
+      <c r="J208" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K208" s="9"/>
+      <c r="L208" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M208" s="5"/>
@@ -11963,31 +11969,31 @@
       <c r="A209" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F209" s="8" t="s">
+      <c r="F209" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8" t="s">
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J209" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K209" s="8"/>
-      <c r="L209" s="9" t="s">
+      <c r="J209" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K209" s="9"/>
+      <c r="L209" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M209" s="5"/>
@@ -12008,22 +12014,22 @@
       <c r="B210" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8" t="s">
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K210" s="8" t="s">
+      <c r="K210" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="L210" s="9" t="s">
+      <c r="L210" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M210" s="5"/>
@@ -12041,27 +12047,27 @@
       <c r="A211" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8" t="s">
+      <c r="E211" s="9"/>
+      <c r="F211" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8" t="s">
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K211" s="8"/>
-      <c r="L211" s="9" t="s">
+      <c r="K211" s="9"/>
+      <c r="L211" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M211" s="5"/>
@@ -12079,33 +12085,33 @@
       <c r="A212" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F212" s="8" t="s">
+      <c r="F212" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="G212" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8" t="s">
+      <c r="H212" s="9"/>
+      <c r="I212" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J212" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K212" s="8"/>
-      <c r="L212" s="9" t="s">
+      <c r="J212" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M212" s="5"/>
@@ -12123,31 +12129,31 @@
       <c r="A213" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E213" s="8" t="s">
+      <c r="E213" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F213" s="8" t="s">
+      <c r="F213" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8" t="s">
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J213" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K213" s="8"/>
-      <c r="L213" s="9" t="s">
+      <c r="J213" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K213" s="9"/>
+      <c r="L213" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M213" s="5"/>
@@ -12182,7 +12188,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -12548,7 +12554,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -12730,48 +12736,48 @@
       <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5" t="s">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E225" s="5"/>
+      <c r="E225" s="2"/>
       <c r="F225" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="5" t="s">
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K225" s="5"/>
+      <c r="K225" s="2"/>
       <c r="L225" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M225" s="5" t="s">
+      <c r="M225" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N225" s="5"/>
-      <c r="O225" s="5" t="s">
+      <c r="N225" s="2"/>
+      <c r="O225" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P225" s="5"/>
+      <c r="P225" s="2"/>
       <c r="Q225" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
-      <c r="U225" s="5" t="s">
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V225" s="5"/>
+      <c r="V225" s="2"/>
     </row>
     <row r="226" spans="1:22">
       <c r="A226" s="5" t="s">
